--- a/src/test/resources/portfolio-upload.xlsx
+++ b/src/test/resources/portfolio-upload.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10605"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/viet/Projects/epmrqua/wm-robo-portfolio/portfolio-service/src/test/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Excel-Mapper\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{584703AC-E939-AA4D-8C77-2BD18586C45F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1460" yWindow="440" windowWidth="27340" windowHeight="17560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1455" yWindow="435" windowWidth="27345" windowHeight="17565" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Portfolio" sheetId="1" r:id="rId1"/>
     <sheet name="Asset" sheetId="2" r:id="rId2"/>
+    <sheet name="TestSheet" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
   <si>
     <t>portfolio 11</t>
   </si>
@@ -75,16 +75,25 @@
   </si>
   <si>
     <t>WIKI/AAPL</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>test2</t>
+  </si>
+  <si>
+    <t>test3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -99,6 +108,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF6A8759"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -121,12 +137,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -440,22 +459,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="14.5" style="3"/>
+    <col min="3" max="3" width="14.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -478,7 +497,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -501,7 +520,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -531,19 +550,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A2" sqref="A2:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
@@ -557,7 +576,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -571,7 +590,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -585,7 +604,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -599,7 +618,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -613,7 +632,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
@@ -630,4 +649,47 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>